--- a/resource/discipline.xlsx
+++ b/resource/discipline.xlsx
@@ -4495,8 +4495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A1373" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4506,18 +4506,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>321</v>
+        <v>1382</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1383</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1382</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1383</v>
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
